--- a/Avwap_Tarama_261225.xlsx
+++ b/Avwap_Tarama_261225.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="657">
   <si>
     <t>Hisse</t>
   </si>
@@ -1714,124 +1714,124 @@
     <t>Aşağı Kırılım(H1,L1)</t>
   </si>
   <si>
+    <t>Aşağı Kırılım(H3,L2)</t>
+  </si>
+  <si>
+    <t>Aşağı Kırılım(L3) - Destek Retest(H3)</t>
+  </si>
+  <si>
+    <t>Destek Retest(L3)</t>
+  </si>
+  <si>
+    <t>Yukarı Kırılım(L1)</t>
+  </si>
+  <si>
+    <t>Aşağı Kırılım(H2,H3,L2)</t>
+  </si>
+  <si>
+    <t>Aşağı Kırılım(L1)</t>
+  </si>
+  <si>
+    <t>Yukarı Kırılım(L3)</t>
+  </si>
+  <si>
+    <t>Aşağı Kırılım(H3,L2) - Direnç Retest(H2)</t>
+  </si>
+  <si>
+    <t>Destek Retest(H3,L3)</t>
+  </si>
+  <si>
+    <t>Aşağı Kırılım(H2)</t>
+  </si>
+  <si>
+    <t>Aşağı Kırılım(L3)</t>
+  </si>
+  <si>
+    <t>Yukarı Kırılım(L2) - Direnç Retest(H2)</t>
+  </si>
+  <si>
+    <t>Direnç Retest(L3)</t>
+  </si>
+  <si>
+    <t>Yukarı Kırılım(H2,L2)</t>
+  </si>
+  <si>
+    <t>Yukarı Kırılım(H1) - Destek Retest(L1)</t>
+  </si>
+  <si>
+    <t>Direnç Retest(H3)</t>
+  </si>
+  <si>
+    <t>Aşağı Kırılım(L1) - Destek Retest(H1,L3)</t>
+  </si>
+  <si>
+    <t>Aşağı Kırılım(H2,L3)</t>
+  </si>
+  <si>
+    <t>Aşağı Kırılım(L3) - Destek Retest(H2,H3,L2)</t>
+  </si>
+  <si>
+    <t>Aşağı Kırılım(H3)</t>
+  </si>
+  <si>
+    <t>Aşağı Kırılım(H3,L1)</t>
+  </si>
+  <si>
+    <t>Destek Retest(H3)</t>
+  </si>
+  <si>
+    <t>Yukarı Kırılım(L2,L3)</t>
+  </si>
+  <si>
+    <t>Yukarı Kırılım(H3) - Destek Retest(L3)</t>
+  </si>
+  <si>
+    <t>Aşağı Kırılım(H1,L1,L2)</t>
+  </si>
+  <si>
+    <t>Aşağı Kırılım(L2)</t>
+  </si>
+  <si>
+    <t>Yukarı Kırılım(H2,L3)</t>
+  </si>
+  <si>
+    <t>Yukarı Kırılım(H3) - Direnç Retest(L2)</t>
+  </si>
+  <si>
+    <t>Direnç Retest(L1)</t>
+  </si>
+  <si>
+    <t>Yukarı Kırılım(H3)</t>
+  </si>
+  <si>
+    <t>Direnç Retest(H2)</t>
+  </si>
+  <si>
+    <t>Destek Retest(H3,L2,L3)</t>
+  </si>
+  <si>
+    <t>Aşağı Kırılım(L3) - Direnç Retest(H1,H2,H3,L1,L2)</t>
+  </si>
+  <si>
+    <t>Direnç Retest(H1,H2,L2,L3)</t>
+  </si>
+  <si>
+    <t>Yukarı Kırılım(H1,H2,H3,L1,L2,L3)</t>
+  </si>
+  <si>
+    <t>Aşağı Kırılım(H1) - Direnç Retest(L2)</t>
+  </si>
+  <si>
+    <t>Aşağı Kırılım(H1,L2)</t>
+  </si>
+  <si>
     <t>Direnç Retest(H1,H2,L1)</t>
   </si>
   <si>
-    <t>Aşağı Kırılım(H3,L2)</t>
-  </si>
-  <si>
-    <t>Aşağı Kırılım(L3) - Destek Retest(H3)</t>
-  </si>
-  <si>
-    <t>Destek Retest(L3)</t>
-  </si>
-  <si>
-    <t>Yukarı Kırılım(L1)</t>
-  </si>
-  <si>
-    <t>Aşağı Kırılım(H2,H3,L2)</t>
-  </si>
-  <si>
-    <t>Aşağı Kırılım(L1)</t>
-  </si>
-  <si>
-    <t>Yukarı Kırılım(L3)</t>
-  </si>
-  <si>
-    <t>Aşağı Kırılım(H3,L2) - Direnç Retest(H2)</t>
-  </si>
-  <si>
-    <t>Destek Retest(H3,L3)</t>
-  </si>
-  <si>
-    <t>Aşağı Kırılım(H2)</t>
-  </si>
-  <si>
-    <t>Aşağı Kırılım(L3)</t>
-  </si>
-  <si>
-    <t>Yukarı Kırılım(L2) - Direnç Retest(H2)</t>
-  </si>
-  <si>
-    <t>Direnç Retest(L3)</t>
-  </si>
-  <si>
-    <t>Yukarı Kırılım(H2,L2)</t>
-  </si>
-  <si>
-    <t>Yukarı Kırılım(H1) - Destek Retest(L1)</t>
-  </si>
-  <si>
-    <t>Direnç Retest(H3)</t>
-  </si>
-  <si>
-    <t>Aşağı Kırılım(L1) - Destek Retest(H1,L3)</t>
-  </si>
-  <si>
-    <t>Aşağı Kırılım(H2,L3)</t>
-  </si>
-  <si>
-    <t>Aşağı Kırılım(L3) - Destek Retest(H2,H3,L2)</t>
-  </si>
-  <si>
-    <t>Aşağı Kırılım(H3)</t>
-  </si>
-  <si>
-    <t>Aşağı Kırılım(H3,L1)</t>
-  </si>
-  <si>
-    <t>Destek Retest(H3)</t>
-  </si>
-  <si>
-    <t>Yukarı Kırılım(L2,L3)</t>
-  </si>
-  <si>
-    <t>Yukarı Kırılım(H3) - Destek Retest(L3)</t>
-  </si>
-  <si>
-    <t>Aşağı Kırılım(H1,L1,L2)</t>
-  </si>
-  <si>
-    <t>Aşağı Kırılım(L2)</t>
-  </si>
-  <si>
-    <t>Yukarı Kırılım(H2,L3)</t>
-  </si>
-  <si>
-    <t>Yukarı Kırılım(H3) - Direnç Retest(L2)</t>
-  </si>
-  <si>
-    <t>Direnç Retest(L1)</t>
-  </si>
-  <si>
-    <t>Yukarı Kırılım(H3)</t>
-  </si>
-  <si>
-    <t>Direnç Retest(H2)</t>
-  </si>
-  <si>
-    <t>Destek Retest(H3,L2,L3)</t>
-  </si>
-  <si>
-    <t>Aşağı Kırılım(L3) - Direnç Retest(H1,H2,H3,L1,L2)</t>
-  </si>
-  <si>
-    <t>Direnç Retest(H1,H2,L2,L3)</t>
-  </si>
-  <si>
-    <t>Yukarı Kırılım(H1,H2,H3,L1,L2,L3)</t>
-  </si>
-  <si>
-    <t>Aşağı Kırılım(H1) - Direnç Retest(L2)</t>
-  </si>
-  <si>
-    <t>Aşağı Kırılım(H1,L2)</t>
-  </si>
-  <si>
     <t>Yukarı Kırılım(H1,H2,H3,L1,L2) - Destek Retest(L3)</t>
   </si>
   <si>
-    <t>Aşağı Kırılım(H1,L1,L3)</t>
+    <t>Aşağı Kırılım(H1,L1,L3) - Direnç Retest(H2,H3,L2)</t>
   </si>
   <si>
     <t>Aşağı Kırılım(H1,H2,L1,L2) - Destek Retest(H3)</t>
@@ -3754,34 +3754,28 @@
         <v>368.09</v>
       </c>
       <c r="F34">
-        <v>59.1</v>
+        <v>95.06</v>
       </c>
       <c r="G34">
-        <v>0.1</v>
-      </c>
-      <c r="H34" t="s">
-        <v>566</v>
-      </c>
-      <c r="I34" t="s">
-        <v>651</v>
+        <v>1.41</v>
       </c>
       <c r="J34">
-        <v>16.35</v>
+        <v>4.06</v>
       </c>
       <c r="K34">
-        <v>15.72</v>
+        <v>4</v>
       </c>
       <c r="L34">
-        <v>15.14</v>
+        <v>4.13</v>
       </c>
       <c r="M34">
-        <v>16.05</v>
+        <v>4.04</v>
       </c>
       <c r="N34">
-        <v>15.22</v>
+        <v>4.04</v>
       </c>
       <c r="O34">
-        <v>15.02</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -3807,7 +3801,7 @@
         <v>0.3</v>
       </c>
       <c r="H35" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I35" t="s">
         <v>655</v>
@@ -4065,7 +4059,7 @@
         <v>0.09</v>
       </c>
       <c r="H41" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="I41" t="s">
         <v>655</v>
@@ -4112,7 +4106,7 @@
         <v>-0.65</v>
       </c>
       <c r="H42" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I42" t="s">
         <v>656</v>
@@ -4241,7 +4235,7 @@
         <v>-0.01</v>
       </c>
       <c r="H45" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I45" t="s">
         <v>656</v>
@@ -4452,7 +4446,7 @@
         <v>0.12</v>
       </c>
       <c r="H50" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="I50" t="s">
         <v>654</v>
@@ -4499,7 +4493,7 @@
         <v>-0.05</v>
       </c>
       <c r="H51" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="I51" t="s">
         <v>652</v>
@@ -4546,7 +4540,7 @@
         <v>-0.77</v>
       </c>
       <c r="H52" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I52" t="s">
         <v>655</v>
@@ -4675,7 +4669,7 @@
         <v>0.2</v>
       </c>
       <c r="H55" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I55" t="s">
         <v>654</v>
@@ -4763,7 +4757,7 @@
         <v>0.14</v>
       </c>
       <c r="H57" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="I57" t="s">
         <v>655</v>
@@ -4933,7 +4927,7 @@
         <v>0.06</v>
       </c>
       <c r="H61" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I61" t="s">
         <v>656</v>
@@ -5062,7 +5056,7 @@
         <v>-0.9399999999999999</v>
       </c>
       <c r="H64" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I64" t="s">
         <v>655</v>
@@ -5150,7 +5144,7 @@
         <v>0.11</v>
       </c>
       <c r="H66" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I66" t="s">
         <v>655</v>
@@ -5320,7 +5314,7 @@
         <v>0.36</v>
       </c>
       <c r="H70" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I70" t="s">
         <v>654</v>
@@ -5572,7 +5566,7 @@
         <v>-0.01</v>
       </c>
       <c r="H76" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I76" t="s">
         <v>651</v>
@@ -5959,7 +5953,7 @@
         <v>-1.07</v>
       </c>
       <c r="H85" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I85" t="s">
         <v>654</v>
@@ -6170,7 +6164,7 @@
         <v>-0.5600000000000001</v>
       </c>
       <c r="H90" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I90" t="s">
         <v>656</v>
@@ -6217,7 +6211,7 @@
         <v>1.07</v>
       </c>
       <c r="H91" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I91" t="s">
         <v>654</v>
@@ -6264,7 +6258,7 @@
         <v>-0.24</v>
       </c>
       <c r="H92" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I92" t="s">
         <v>651</v>
@@ -6311,7 +6305,7 @@
         <v>-3.62</v>
       </c>
       <c r="H93" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="I93" t="s">
         <v>654</v>
@@ -6399,7 +6393,7 @@
         <v>-0.01</v>
       </c>
       <c r="H95" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I95" t="s">
         <v>656</v>
@@ -6575,7 +6569,7 @@
         <v>0.35</v>
       </c>
       <c r="H99" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I99" t="s">
         <v>655</v>
@@ -6704,7 +6698,7 @@
         <v>-0.6</v>
       </c>
       <c r="H102" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I102" t="s">
         <v>655</v>
@@ -6874,7 +6868,7 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I106" t="s">
         <v>655</v>
@@ -6921,7 +6915,7 @@
         <v>0.04</v>
       </c>
       <c r="H107" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I107" t="s">
         <v>655</v>
@@ -7009,7 +7003,7 @@
         <v>0.08</v>
       </c>
       <c r="H109" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I109" t="s">
         <v>655</v>
@@ -7097,7 +7091,7 @@
         <v>2.56</v>
       </c>
       <c r="H111" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I111" t="s">
         <v>656</v>
@@ -7273,7 +7267,7 @@
         <v>0.02</v>
       </c>
       <c r="H115" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I115" t="s">
         <v>654</v>
@@ -7484,7 +7478,7 @@
         <v>-0.06</v>
       </c>
       <c r="H120" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I120" t="s">
         <v>655</v>
@@ -7613,7 +7607,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="H123" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I123" t="s">
         <v>654</v>
@@ -7660,7 +7654,7 @@
         <v>-0.41</v>
       </c>
       <c r="H124" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I124" t="s">
         <v>652</v>
@@ -7748,7 +7742,7 @@
         <v>2.68</v>
       </c>
       <c r="H126" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I126" t="s">
         <v>655</v>
@@ -7795,7 +7789,7 @@
         <v>0.67</v>
       </c>
       <c r="H127" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I127" t="s">
         <v>655</v>
@@ -8135,7 +8129,7 @@
         <v>-0.05</v>
       </c>
       <c r="H135" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I135" t="s">
         <v>654</v>
@@ -8264,7 +8258,7 @@
         <v>0.1</v>
       </c>
       <c r="H138" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I138" t="s">
         <v>654</v>
@@ -8311,7 +8305,7 @@
         <v>-0.04</v>
       </c>
       <c r="H139" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="I139" t="s">
         <v>651</v>
@@ -8440,7 +8434,7 @@
         <v>0.12</v>
       </c>
       <c r="H142" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I142" t="s">
         <v>655</v>
@@ -8569,7 +8563,7 @@
         <v>0.24</v>
       </c>
       <c r="H145" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I145" t="s">
         <v>651</v>
@@ -8739,7 +8733,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I149" t="s">
         <v>654</v>
@@ -8786,7 +8780,7 @@
         <v>-0.03</v>
       </c>
       <c r="H150" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I150" t="s">
         <v>651</v>
@@ -8915,7 +8909,7 @@
         <v>-0.74</v>
       </c>
       <c r="H153" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I153" t="s">
         <v>651</v>
@@ -9044,7 +9038,7 @@
         <v>0.14</v>
       </c>
       <c r="H156" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I156" t="s">
         <v>655</v>
@@ -9132,7 +9126,7 @@
         <v>0.2</v>
       </c>
       <c r="H158" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I158" t="s">
         <v>656</v>
@@ -9179,7 +9173,7 @@
         <v>-0.01</v>
       </c>
       <c r="H159" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I159" t="s">
         <v>655</v>
@@ -9226,7 +9220,7 @@
         <v>0.01</v>
       </c>
       <c r="H160" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I160" t="s">
         <v>654</v>
@@ -9314,7 +9308,7 @@
         <v>-0.03</v>
       </c>
       <c r="H162" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I162" t="s">
         <v>651</v>
@@ -9443,7 +9437,7 @@
         <v>-3.69</v>
       </c>
       <c r="H165" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I165" t="s">
         <v>651</v>
@@ -9490,7 +9484,7 @@
         <v>0.01</v>
       </c>
       <c r="H166" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I166" t="s">
         <v>653</v>
@@ -9537,7 +9531,7 @@
         <v>-0.16</v>
       </c>
       <c r="H167" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I167" t="s">
         <v>655</v>
@@ -9584,7 +9578,7 @@
         <v>-0.77</v>
       </c>
       <c r="H168" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I168" t="s">
         <v>655</v>
@@ -9631,7 +9625,7 @@
         <v>56</v>
       </c>
       <c r="H169" t="s">
-        <v>566</v>
+        <v>603</v>
       </c>
       <c r="I169" t="s">
         <v>651</v>
@@ -9725,7 +9719,7 @@
         <v>0.04</v>
       </c>
       <c r="H171" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I171" t="s">
         <v>654</v>
@@ -9854,7 +9848,7 @@
         <v>0.02</v>
       </c>
       <c r="H174" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I174" t="s">
         <v>655</v>
@@ -9930,16 +9924,16 @@
         <v>6.3</v>
       </c>
       <c r="D176">
-        <v>-76.98999999999999</v>
+        <v>-7.96</v>
       </c>
       <c r="E176">
-        <v>707.17</v>
+        <v>101.79</v>
       </c>
       <c r="F176">
-        <v>13.58</v>
+        <v>39.4</v>
       </c>
       <c r="G176">
-        <v>-1.38</v>
+        <v>-0.04</v>
       </c>
       <c r="H176" t="s">
         <v>605</v>
@@ -9948,22 +9942,22 @@
         <v>652</v>
       </c>
       <c r="J176">
-        <v>25.64</v>
+        <v>6.78</v>
       </c>
       <c r="K176">
-        <v>25.1</v>
+        <v>6.85</v>
       </c>
       <c r="L176">
-        <v>19.37</v>
+        <v>6.97</v>
       </c>
       <c r="M176">
-        <v>25.6</v>
+        <v>6.73</v>
       </c>
       <c r="N176">
-        <v>25.44</v>
+        <v>6.83</v>
       </c>
       <c r="O176">
-        <v>24.14</v>
+        <v>6.82</v>
       </c>
     </row>
     <row r="177" spans="1:15">
@@ -10276,7 +10270,7 @@
         <v>-0.37</v>
       </c>
       <c r="H184" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I184" t="s">
         <v>654</v>
@@ -10323,7 +10317,7 @@
         <v>0.36</v>
       </c>
       <c r="H185" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I185" t="s">
         <v>654</v>
@@ -11296,7 +11290,7 @@
         <v>-0.02</v>
       </c>
       <c r="H208" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I208" t="s">
         <v>655</v>
@@ -11384,7 +11378,7 @@
         <v>0.05</v>
       </c>
       <c r="H210" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I210" t="s">
         <v>655</v>
@@ -11513,7 +11507,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="H213" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I213" t="s">
         <v>654</v>
@@ -11648,7 +11642,7 @@
         <v>-0.2</v>
       </c>
       <c r="H216" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I216" t="s">
         <v>654</v>
@@ -11742,7 +11736,7 @@
         <v>-0.07000000000000001</v>
       </c>
       <c r="H218" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I218" t="s">
         <v>655</v>
@@ -11789,7 +11783,7 @@
         <v>0.16</v>
       </c>
       <c r="H219" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I219" t="s">
         <v>653</v>
@@ -11930,7 +11924,7 @@
         <v>-0.51</v>
       </c>
       <c r="H222" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I222" t="s">
         <v>655</v>
@@ -12452,7 +12446,7 @@
         <v>-0.02</v>
       </c>
       <c r="H234" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I234" t="s">
         <v>651</v>
@@ -12921,7 +12915,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I245" t="s">
         <v>655</v>
@@ -13097,7 +13091,7 @@
         <v>0.06</v>
       </c>
       <c r="H249" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I249" t="s">
         <v>656</v>
@@ -13431,7 +13425,7 @@
         <v>0.02</v>
       </c>
       <c r="H257" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I257" t="s">
         <v>654</v>
@@ -13478,7 +13472,7 @@
         <v>0.01</v>
       </c>
       <c r="H258" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I258" t="s">
         <v>656</v>
@@ -13619,7 +13613,7 @@
         <v>-0.05</v>
       </c>
       <c r="H261" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I261" t="s">
         <v>655</v>
@@ -13836,7 +13830,7 @@
         <v>1.16</v>
       </c>
       <c r="H266" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I266" t="s">
         <v>653</v>
@@ -14047,7 +14041,7 @@
         <v>-0.09</v>
       </c>
       <c r="H271" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I271" t="s">
         <v>655</v>
@@ -14223,7 +14217,7 @@
         <v>0.03</v>
       </c>
       <c r="H275" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I275" t="s">
         <v>655</v>
@@ -14311,7 +14305,7 @@
         <v>-0.01</v>
       </c>
       <c r="H277" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I277" t="s">
         <v>654</v>
@@ -14686,7 +14680,7 @@
         <v>0.06</v>
       </c>
       <c r="H286" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I286" t="s">
         <v>655</v>
@@ -14862,7 +14856,7 @@
         <v>-0.08</v>
       </c>
       <c r="H290" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I290" t="s">
         <v>654</v>
@@ -14909,7 +14903,7 @@
         <v>0.03</v>
       </c>
       <c r="H291" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I291" t="s">
         <v>654</v>
@@ -15079,7 +15073,7 @@
         <v>0.64</v>
       </c>
       <c r="H295" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I295" t="s">
         <v>651</v>
@@ -15337,7 +15331,7 @@
         <v>0.22</v>
       </c>
       <c r="H301" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I301" t="s">
         <v>651</v>
@@ -15513,7 +15507,7 @@
         <v>-6.12</v>
       </c>
       <c r="H305" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I305" t="s">
         <v>651</v>
@@ -15724,7 +15718,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I310" t="s">
         <v>655</v>
@@ -15859,7 +15853,7 @@
         <v>0.02</v>
       </c>
       <c r="H313" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I313" t="s">
         <v>655</v>
@@ -16287,7 +16281,7 @@
         <v>0.13</v>
       </c>
       <c r="H323" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="I323" t="s">
         <v>651</v>
@@ -16375,7 +16369,7 @@
         <v>-0.03</v>
       </c>
       <c r="H325" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="I325" t="s">
         <v>654</v>
@@ -16715,7 +16709,7 @@
         <v>-0.3</v>
       </c>
       <c r="H333" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I333" t="s">
         <v>655</v>
@@ -16891,7 +16885,7 @@
         <v>-0.05</v>
       </c>
       <c r="H337" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I337" t="s">
         <v>654</v>
@@ -17231,7 +17225,7 @@
         <v>0.02</v>
       </c>
       <c r="H345" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I345" t="s">
         <v>651</v>
@@ -17319,7 +17313,7 @@
         <v>-0.19</v>
       </c>
       <c r="H347" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I347" t="s">
         <v>655</v>
@@ -17706,7 +17700,7 @@
         <v>-1.12</v>
       </c>
       <c r="H356" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I356" t="s">
         <v>654</v>
@@ -17794,7 +17788,7 @@
         <v>-0.03</v>
       </c>
       <c r="H358" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I358" t="s">
         <v>655</v>
@@ -18357,7 +18351,7 @@
         <v>0.11</v>
       </c>
       <c r="H371" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I371" t="s">
         <v>655</v>
@@ -18662,7 +18656,7 @@
         <v>-3.15</v>
       </c>
       <c r="H378" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I378" t="s">
         <v>655</v>
@@ -18791,7 +18785,7 @@
         <v>0.06</v>
       </c>
       <c r="H381" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I381" t="s">
         <v>654</v>
@@ -19049,7 +19043,7 @@
         <v>-0.25</v>
       </c>
       <c r="H387" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I387" t="s">
         <v>655</v>
@@ -19096,7 +19090,7 @@
         <v>-1.18</v>
       </c>
       <c r="H388" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I388" t="s">
         <v>655</v>
@@ -19436,7 +19430,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="H396" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I396" t="s">
         <v>654</v>
@@ -19524,7 +19518,7 @@
         <v>1.14</v>
       </c>
       <c r="H398" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="I398" t="s">
         <v>654</v>
@@ -19782,7 +19776,7 @@
         <v>-0.01</v>
       </c>
       <c r="H404" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I404" t="s">
         <v>651</v>
@@ -20386,7 +20380,7 @@
         <v>0.14</v>
       </c>
       <c r="H418" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I418" t="s">
         <v>655</v>
@@ -20990,7 +20984,7 @@
         <v>-0.06</v>
       </c>
       <c r="H432" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I432" t="s">
         <v>655</v>
@@ -21494,7 +21488,7 @@
         <v>0.11</v>
       </c>
       <c r="H444" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I444" t="s">
         <v>655</v>
@@ -21834,7 +21828,7 @@
         <v>0.01</v>
       </c>
       <c r="H452" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I452" t="s">
         <v>654</v>
@@ -22004,7 +21998,7 @@
         <v>-3.05</v>
       </c>
       <c r="H456" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I456" t="s">
         <v>651</v>
@@ -22297,7 +22291,7 @@
         <v>0.2</v>
       </c>
       <c r="H463" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I463" t="s">
         <v>654</v>
@@ -22426,7 +22420,7 @@
         <v>-0.17</v>
       </c>
       <c r="H466" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I466" t="s">
         <v>654</v>
@@ -22637,7 +22631,7 @@
         <v>0.06</v>
       </c>
       <c r="H471" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I471" t="s">
         <v>656</v>
@@ -23030,7 +23024,7 @@
         <v>-0.15</v>
       </c>
       <c r="H480" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I480" t="s">
         <v>654</v>
@@ -23640,7 +23634,7 @@
         <v>-0.07000000000000001</v>
       </c>
       <c r="H494" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I494" t="s">
         <v>656</v>
@@ -23769,7 +23763,7 @@
         <v>0.1</v>
       </c>
       <c r="H497" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I497" t="s">
         <v>651</v>
@@ -24115,7 +24109,7 @@
         <v>-0.9399999999999999</v>
       </c>
       <c r="H505" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I505" t="s">
         <v>655</v>
@@ -25114,7 +25108,7 @@
         <v>-0.37</v>
       </c>
       <c r="E529">
-        <v>29.09</v>
+        <v>29.41</v>
       </c>
       <c r="F529">
         <v>57.27</v>
@@ -25123,28 +25117,28 @@
         <v>-8.98</v>
       </c>
       <c r="H529" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I529" t="s">
         <v>655</v>
       </c>
       <c r="J529">
-        <v>10931.56</v>
+        <v>10931.55</v>
       </c>
       <c r="K529">
-        <v>10996.18</v>
+        <v>10996.17</v>
       </c>
       <c r="L529">
-        <v>11320.56</v>
+        <v>11320.55</v>
       </c>
       <c r="M529">
-        <v>10950.19</v>
+        <v>10950.18</v>
       </c>
       <c r="N529">
-        <v>10930.85</v>
+        <v>10930.84</v>
       </c>
       <c r="O529">
-        <v>11072.76</v>
+        <v>11072.74</v>
       </c>
     </row>
     <row r="530" spans="1:15">
@@ -25504,7 +25498,7 @@
         <v>-0.27</v>
       </c>
       <c r="H538" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I538" t="s">
         <v>655</v>
